--- a/src/main/resources/templates/excel/TemplateTiket.xlsx
+++ b/src/main/resources/templates/excel/TemplateTiket.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CALCULATION" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Outsourcing Monthly Salary Report</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>Total Man Power Supply</t>
+  </si>
+  <si>
+    <t>Total Management Fee</t>
   </si>
   <si>
     <t>Total PPN 11%</t>
@@ -2258,12 +2261,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection pane="bottomLeft" activeCell="AQ18" sqref="AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2956,15 +2959,21 @@
       <c r="AQ12" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="AR12" s="98">
-        <v>312581.23704832</v>
-      </c>
+      <c r="AR12" s="98"/>
     </row>
     <row r="13" spans="43:44">
       <c r="AQ13" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="AR13" s="100">
+      <c r="AR13" s="98">
+        <v>312581.23704832</v>
+      </c>
+    </row>
+    <row r="14" spans="43:44">
+      <c r="AQ14" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR14" s="100">
         <v>32</v>
       </c>
     </row>

--- a/src/main/resources/templates/excel/TemplateTiket.xlsx
+++ b/src/main/resources/templates/excel/TemplateTiket.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="14400" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CALCULATION" sheetId="1" r:id="rId1"/>
+    <sheet name="INVOICE" sheetId="2" r:id="rId1"/>
+    <sheet name="CALCULATION" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,7 +134,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>Kepada :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINANCE DEPARTMENT         - </t>
+  </si>
+  <si>
+    <t>PT GLOBAL TIKET NETWORK</t>
+  </si>
+  <si>
+    <t>Gedung Wisma Barito Pacific II LT 8</t>
+  </si>
+  <si>
+    <t>Jl. Let. Jend. S. Parman Kav 60  RT. 014 RW. 005</t>
+  </si>
+  <si>
+    <t>Slipi, Palmerah</t>
+  </si>
+  <si>
+    <t>Invoice No</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date         </t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Personnel Qty</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Biaya Pengadaan Jasa Tenaga Kerja Periode Maret 2025</t>
+  </si>
+  <si>
+    <t>Management Fee</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Dasar Pengenaan Pajak</t>
+  </si>
+  <si>
+    <t>VAT 11%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">PPh Ps. 23   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Terbilang:</t>
+  </si>
+  <si>
+    <t>Transter to:</t>
+  </si>
+  <si>
+    <t>A/C Number:</t>
+  </si>
+  <si>
+    <t>A/N:</t>
+  </si>
   <si>
     <t>Outsourcing Monthly Salary Report</t>
   </si>
@@ -326,7 +419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="9">
+  <numFmts count="14">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -336,8 +429,13 @@
     <numFmt numFmtId="182" formatCode="#,##0_);\(#,##0\)"/>
     <numFmt numFmtId="183" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="184" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="186" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="[$-421]dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="188" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="189" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +509,126 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -560,11 +778,17 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +847,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -800,7 +1048,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1082,6 +1330,385 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1180,7 +1807,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,139 +1826,144 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,7 +2173,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -1719,6 +2351,207 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="51" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="27" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="28" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="30" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="32" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="37" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="37" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="37" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="37" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="38" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="12" borderId="41" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="41" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="40" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="42" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="24" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="43" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="44" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="45" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="51" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="51" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="186" fontId="27" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="24" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="186" fontId="12" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="48" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="49" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="50" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="55" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="19" fillId="11" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="55" applyFont="1"/>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="13" fillId="0" borderId="50" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="50" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="17" fillId="12" borderId="51" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="51" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="17" fillId="12" borderId="51" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="12" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="52" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="19" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="53" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="13" fillId="14" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="51" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1727,7 +2560,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1779,6 +2612,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
     <cellStyle name="Comma 20" xfId="49"/>
     <cellStyle name="Normal 22" xfId="50"/>
+    <cellStyle name="Normal 2 4" xfId="51"/>
+    <cellStyle name="Normal_OICPI009_1106_Onshore_IDY" xfId="52"/>
+    <cellStyle name="Comma 10" xfId="53"/>
+    <cellStyle name="Normal_OIIN0009_0407_Makasar" xfId="54"/>
+    <cellStyle name="Comma [0] 2 2" xfId="55"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -2261,12 +3099,1331 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:Q903"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="101" customWidth="1"/>
+    <col min="2" max="2" width="7.42857142857143" style="101" customWidth="1"/>
+    <col min="3" max="3" width="12.8571428571429" style="101" customWidth="1"/>
+    <col min="4" max="4" width="17" style="101" customWidth="1"/>
+    <col min="5" max="5" width="13.8571428571429" style="101" customWidth="1"/>
+    <col min="6" max="6" width="40.1428571428571" style="101" customWidth="1"/>
+    <col min="7" max="7" width="13.1428571428571" style="101" customWidth="1"/>
+    <col min="8" max="8" width="1.14285714285714" style="101" customWidth="1"/>
+    <col min="9" max="9" width="20.8571428571429" style="101" customWidth="1"/>
+    <col min="10" max="10" width="6" style="101" customWidth="1"/>
+    <col min="11" max="11" width="15.8571428571429" style="101" customWidth="1"/>
+    <col min="12" max="12" width="17" style="103" customWidth="1"/>
+    <col min="13" max="15" width="14.4285714285714" style="103"/>
+    <col min="16" max="16" width="16" style="103" customWidth="1"/>
+    <col min="17" max="17" width="14.4285714285714" style="103"/>
+    <col min="18" max="16384" width="14.4285714285714" style="101"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="101" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+    </row>
+    <row r="2" s="101" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+    </row>
+    <row r="3" s="101" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+    </row>
+    <row r="4" s="101" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+    </row>
+    <row r="5" s="101" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+    </row>
+    <row r="6" s="101" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+    </row>
+    <row r="7" s="101" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+    </row>
+    <row r="8" s="101" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+    </row>
+    <row r="9" s="101" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+    </row>
+    <row r="10" s="101" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+    </row>
+    <row r="11" s="101" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+    </row>
+    <row r="12" s="101" customFormat="1" ht="24" customHeight="1" spans="1:17">
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+    </row>
+    <row r="13" s="101" customFormat="1" ht="24" customHeight="1" spans="1:17">
+      <c r="A13" s="104"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="111"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+    </row>
+    <row r="14" s="101" customFormat="1" ht="24" customHeight="1" spans="1:17">
+      <c r="A14" s="104"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+    </row>
+    <row r="15" s="101" customFormat="1" ht="24" customHeight="1" spans="1:17">
+      <c r="A15" s="104"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+    </row>
+    <row r="16" s="101" customFormat="1" ht="13.5" customHeight="1" spans="1:17">
+      <c r="A16" s="104"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+    </row>
+    <row r="17" s="101" customFormat="1" ht="13.5" customHeight="1" spans="1:17">
+      <c r="A17" s="104"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+    </row>
+    <row r="18" s="101" customFormat="1" ht="14.45" customHeight="1" spans="1:17">
+      <c r="A18" s="104"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+    </row>
+    <row r="19" s="101" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A19" s="104"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+    </row>
+    <row r="20" s="101" customFormat="1" ht="15.6" customHeight="1" spans="1:17">
+      <c r="A20" s="104"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="110">
+        <v>0</v>
+      </c>
+      <c r="J20" s="172"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+    </row>
+    <row r="21" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:17">
+      <c r="A21" s="104"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="175">
+        <v>45743</v>
+      </c>
+      <c r="J21" s="172"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+    </row>
+    <row r="22" s="101" customFormat="1" ht="13.5" customHeight="1" spans="1:17">
+      <c r="A22" s="104"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+    </row>
+    <row r="23" s="101" customFormat="1" ht="24.75" customHeight="1" spans="1:11">
+      <c r="A23" s="104"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="122"/>
+      <c r="I23" s="176" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="172"/>
+      <c r="K23" s="104"/>
+    </row>
+    <row r="24" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A24" s="104"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="104"/>
+    </row>
+    <row r="25" s="102" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A25" s="129"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="130">
+        <v>1</v>
+      </c>
+      <c r="D25" s="131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="132"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="101"/>
+    </row>
+    <row r="26" s="102" customFormat="1" spans="1:15">
+      <c r="A26" s="129"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="101"/>
+    </row>
+    <row r="27" s="102" customFormat="1" spans="1:15">
+      <c r="A27" s="129"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="101"/>
+    </row>
+    <row r="28" s="102" customFormat="1" ht="13.5" customHeight="1" spans="1:15">
+      <c r="A28" s="129"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="130">
+        <v>2</v>
+      </c>
+      <c r="D28" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="137"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="139">
+        <v>0.08</v>
+      </c>
+      <c r="H28" s="135"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="101"/>
+    </row>
+    <row r="29" s="102" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A29" s="129"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="129"/>
+    </row>
+    <row r="30" s="102" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A30" s="129"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="129"/>
+    </row>
+    <row r="31" s="102" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A31" s="129"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="129"/>
+    </row>
+    <row r="32" s="102" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A32" s="129"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="129"/>
+    </row>
+    <row r="33" s="102" customFormat="1" ht="17.1" customHeight="1" spans="1:11">
+      <c r="A33" s="129"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="129"/>
+    </row>
+    <row r="34" s="101" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
+      <c r="A34" s="104"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="149" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="188"/>
+    </row>
+    <row r="35" s="101" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
+      <c r="A35" s="104"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="188"/>
+    </row>
+    <row r="36" s="101" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
+      <c r="A36" s="104"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="149" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="188"/>
+    </row>
+    <row r="37" s="101" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
+      <c r="A37" s="104"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="152"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="174"/>
+      <c r="L37" s="188"/>
+    </row>
+    <row r="38" s="101" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
+      <c r="A38" s="104"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="191">
+        <v>85968345.5943588</v>
+      </c>
+      <c r="L38" s="188"/>
+    </row>
+    <row r="39" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:13">
+      <c r="A39" s="104"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="154" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="155"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="193"/>
+      <c r="L39" s="188"/>
+      <c r="M39" s="188"/>
+    </row>
+    <row r="40" s="101" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+      <c r="A40" s="104"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="194"/>
+      <c r="J40" s="172"/>
+      <c r="K40" s="193"/>
+      <c r="L40" s="188"/>
+      <c r="M40" s="188"/>
+    </row>
+    <row r="41" s="101" customFormat="1" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A41" s="104"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="161"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="188"/>
+    </row>
+    <row r="42" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:13">
+      <c r="A42" s="104"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="114"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="188"/>
+      <c r="M42" s="188"/>
+    </row>
+    <row r="43" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:12">
+      <c r="A43" s="104"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="162"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="172"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="196"/>
+    </row>
+    <row r="44" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:12">
+      <c r="A44" s="104"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="114"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="172"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="188"/>
+    </row>
+    <row r="45" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A45" s="104"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="172"/>
+      <c r="K45" s="104"/>
+    </row>
+    <row r="46" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:12">
+      <c r="A46" s="104"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="172"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="188"/>
+    </row>
+    <row r="47" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A47" s="104"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="172"/>
+      <c r="K47" s="104"/>
+    </row>
+    <row r="48" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A48" s="104"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="172"/>
+      <c r="K48" s="104"/>
+    </row>
+    <row r="49" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A49" s="104"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="172"/>
+      <c r="K49" s="104"/>
+    </row>
+    <row r="50" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A50" s="104"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="197"/>
+      <c r="J50" s="172"/>
+      <c r="K50" s="104"/>
+    </row>
+    <row r="51" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A51" s="104"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="164"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="172"/>
+      <c r="K51" s="104"/>
+    </row>
+    <row r="52" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A52" s="104"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="166"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="172"/>
+      <c r="K52" s="104"/>
+    </row>
+    <row r="53" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A53" s="104"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="172"/>
+      <c r="K53" s="104"/>
+    </row>
+    <row r="54" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A54" s="104"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="172"/>
+      <c r="K54" s="104"/>
+    </row>
+    <row r="55" s="101" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
+      <c r="A55" s="104"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="164"/>
+      <c r="H55" s="164"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="172"/>
+      <c r="K55" s="104"/>
+    </row>
+    <row r="56" s="101" customFormat="1" ht="13.5" customHeight="1" spans="1:11">
+      <c r="A56" s="104"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="167"/>
+      <c r="H56" s="167"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="172"/>
+      <c r="K56" s="104"/>
+    </row>
+    <row r="57" s="101" customFormat="1" ht="13.5" customHeight="1" spans="1:11">
+      <c r="A57" s="104"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="167"/>
+      <c r="H57" s="167"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="172"/>
+      <c r="K57" s="104"/>
+    </row>
+    <row r="58" s="101" customFormat="1" spans="1:11">
+      <c r="A58" s="104"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="169"/>
+      <c r="F58" s="169"/>
+      <c r="G58" s="169"/>
+      <c r="H58" s="169"/>
+      <c r="I58" s="169"/>
+      <c r="J58" s="198"/>
+      <c r="K58" s="104"/>
+    </row>
+    <row r="59" s="101" customFormat="1" spans="1:11">
+      <c r="A59" s="104"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+    </row>
+    <row r="876" s="101" customFormat="1" spans="5:17">
+      <c r="E876" s="199"/>
+      <c r="F876" s="199"/>
+      <c r="L876" s="103"/>
+      <c r="M876" s="103"/>
+      <c r="N876" s="103"/>
+      <c r="O876" s="103"/>
+      <c r="P876" s="103"/>
+      <c r="Q876" s="103"/>
+    </row>
+    <row r="877" s="101" customFormat="1" spans="5:17">
+      <c r="E877" s="199"/>
+      <c r="F877" s="199"/>
+      <c r="L877" s="103"/>
+      <c r="M877" s="103"/>
+      <c r="N877" s="103"/>
+      <c r="O877" s="103"/>
+      <c r="P877" s="103"/>
+      <c r="Q877" s="103"/>
+    </row>
+    <row r="878" s="101" customFormat="1" spans="5:17">
+      <c r="E878" s="199"/>
+      <c r="F878" s="199"/>
+      <c r="L878" s="103"/>
+      <c r="M878" s="103"/>
+      <c r="N878" s="103"/>
+      <c r="O878" s="103"/>
+      <c r="P878" s="103"/>
+      <c r="Q878" s="103"/>
+    </row>
+    <row r="879" s="101" customFormat="1" spans="5:17">
+      <c r="E879" s="199"/>
+      <c r="F879" s="199"/>
+      <c r="L879" s="103"/>
+      <c r="M879" s="103"/>
+      <c r="N879" s="103"/>
+      <c r="O879" s="103"/>
+      <c r="P879" s="103"/>
+      <c r="Q879" s="103"/>
+    </row>
+    <row r="880" s="101" customFormat="1" spans="5:17">
+      <c r="E880" s="199"/>
+      <c r="F880" s="199"/>
+      <c r="L880" s="103"/>
+      <c r="M880" s="103"/>
+      <c r="N880" s="103"/>
+      <c r="O880" s="103"/>
+      <c r="P880" s="103"/>
+      <c r="Q880" s="103"/>
+    </row>
+    <row r="881" s="101" customFormat="1" spans="5:17">
+      <c r="E881" s="199"/>
+      <c r="F881" s="199"/>
+      <c r="L881" s="103"/>
+      <c r="M881" s="103"/>
+      <c r="N881" s="103"/>
+      <c r="O881" s="103"/>
+      <c r="P881" s="103"/>
+      <c r="Q881" s="103"/>
+    </row>
+    <row r="882" s="101" customFormat="1" spans="5:17">
+      <c r="E882" s="199"/>
+      <c r="F882" s="199"/>
+      <c r="L882" s="103"/>
+      <c r="M882" s="103"/>
+      <c r="N882" s="103"/>
+      <c r="O882" s="103"/>
+      <c r="P882" s="103"/>
+      <c r="Q882" s="103"/>
+    </row>
+    <row r="883" s="101" customFormat="1" spans="5:17">
+      <c r="E883" s="199"/>
+      <c r="F883" s="199"/>
+      <c r="L883" s="103"/>
+      <c r="M883" s="103"/>
+      <c r="N883" s="103"/>
+      <c r="O883" s="103"/>
+      <c r="P883" s="103"/>
+      <c r="Q883" s="103"/>
+    </row>
+    <row r="884" s="101" customFormat="1" spans="5:17">
+      <c r="E884" s="199"/>
+      <c r="F884" s="199"/>
+      <c r="L884" s="103"/>
+      <c r="M884" s="103"/>
+      <c r="N884" s="103"/>
+      <c r="O884" s="103"/>
+      <c r="P884" s="103"/>
+      <c r="Q884" s="103"/>
+    </row>
+    <row r="885" s="101" customFormat="1" spans="5:17">
+      <c r="E885" s="199"/>
+      <c r="F885" s="199"/>
+      <c r="L885" s="103"/>
+      <c r="M885" s="103"/>
+      <c r="N885" s="103"/>
+      <c r="O885" s="103"/>
+      <c r="P885" s="103"/>
+      <c r="Q885" s="103"/>
+    </row>
+    <row r="886" s="101" customFormat="1" spans="5:17">
+      <c r="E886" s="199"/>
+      <c r="F886" s="199"/>
+      <c r="L886" s="103"/>
+      <c r="M886" s="103"/>
+      <c r="N886" s="103"/>
+      <c r="O886" s="103"/>
+      <c r="P886" s="103"/>
+      <c r="Q886" s="103"/>
+    </row>
+    <row r="887" s="101" customFormat="1" spans="5:17">
+      <c r="E887" s="199"/>
+      <c r="F887" s="199"/>
+      <c r="L887" s="103"/>
+      <c r="M887" s="103"/>
+      <c r="N887" s="103"/>
+      <c r="O887" s="103"/>
+      <c r="P887" s="103"/>
+      <c r="Q887" s="103"/>
+    </row>
+    <row r="888" s="101" customFormat="1" spans="5:17">
+      <c r="E888" s="199"/>
+      <c r="F888" s="199"/>
+      <c r="L888" s="103"/>
+      <c r="M888" s="103"/>
+      <c r="N888" s="103"/>
+      <c r="O888" s="103"/>
+      <c r="P888" s="103"/>
+      <c r="Q888" s="103"/>
+    </row>
+    <row r="889" s="101" customFormat="1" spans="5:17">
+      <c r="E889" s="199"/>
+      <c r="F889" s="199"/>
+      <c r="L889" s="103"/>
+      <c r="M889" s="103"/>
+      <c r="N889" s="103"/>
+      <c r="O889" s="103"/>
+      <c r="P889" s="103"/>
+      <c r="Q889" s="103"/>
+    </row>
+    <row r="890" s="101" customFormat="1" spans="5:17">
+      <c r="E890" s="199"/>
+      <c r="F890" s="199"/>
+      <c r="L890" s="103"/>
+      <c r="M890" s="103"/>
+      <c r="N890" s="103"/>
+      <c r="O890" s="103"/>
+      <c r="P890" s="103"/>
+      <c r="Q890" s="103"/>
+    </row>
+    <row r="891" s="101" customFormat="1" spans="5:17">
+      <c r="E891" s="199"/>
+      <c r="F891" s="199"/>
+      <c r="L891" s="103"/>
+      <c r="M891" s="103"/>
+      <c r="N891" s="103"/>
+      <c r="O891" s="103"/>
+      <c r="P891" s="103"/>
+      <c r="Q891" s="103"/>
+    </row>
+    <row r="892" s="101" customFormat="1" spans="5:17">
+      <c r="E892" s="199"/>
+      <c r="F892" s="199"/>
+      <c r="L892" s="103"/>
+      <c r="M892" s="103"/>
+      <c r="N892" s="103"/>
+      <c r="O892" s="103"/>
+      <c r="P892" s="103"/>
+      <c r="Q892" s="103"/>
+    </row>
+    <row r="893" s="101" customFormat="1" spans="5:17">
+      <c r="E893" s="199"/>
+      <c r="F893" s="199"/>
+      <c r="L893" s="103"/>
+      <c r="M893" s="103"/>
+      <c r="N893" s="103"/>
+      <c r="O893" s="103"/>
+      <c r="P893" s="103"/>
+      <c r="Q893" s="103"/>
+    </row>
+    <row r="894" s="101" customFormat="1" spans="5:17">
+      <c r="E894" s="199"/>
+      <c r="F894" s="199"/>
+      <c r="L894" s="103"/>
+      <c r="M894" s="103"/>
+      <c r="N894" s="103"/>
+      <c r="O894" s="103"/>
+      <c r="P894" s="103"/>
+      <c r="Q894" s="103"/>
+    </row>
+    <row r="895" s="101" customFormat="1" spans="5:17">
+      <c r="E895" s="199"/>
+      <c r="F895" s="199"/>
+      <c r="L895" s="103"/>
+      <c r="M895" s="103"/>
+      <c r="N895" s="103"/>
+      <c r="O895" s="103"/>
+      <c r="P895" s="103"/>
+      <c r="Q895" s="103"/>
+    </row>
+    <row r="896" s="101" customFormat="1" spans="5:17">
+      <c r="E896" s="199"/>
+      <c r="F896" s="199"/>
+      <c r="L896" s="103"/>
+      <c r="M896" s="103"/>
+      <c r="N896" s="103"/>
+      <c r="O896" s="103"/>
+      <c r="P896" s="103"/>
+      <c r="Q896" s="103"/>
+    </row>
+    <row r="897" s="101" customFormat="1" spans="5:17">
+      <c r="E897" s="199"/>
+      <c r="F897" s="199"/>
+      <c r="L897" s="103"/>
+      <c r="M897" s="103"/>
+      <c r="N897" s="103"/>
+      <c r="O897" s="103"/>
+      <c r="P897" s="103"/>
+      <c r="Q897" s="103"/>
+    </row>
+    <row r="898" s="101" customFormat="1" spans="5:17">
+      <c r="E898" s="199"/>
+      <c r="F898" s="199"/>
+      <c r="L898" s="103"/>
+      <c r="M898" s="103"/>
+      <c r="N898" s="103"/>
+      <c r="O898" s="103"/>
+      <c r="P898" s="103"/>
+      <c r="Q898" s="103"/>
+    </row>
+    <row r="899" s="101" customFormat="1" spans="5:17">
+      <c r="E899" s="199"/>
+      <c r="F899" s="199"/>
+      <c r="L899" s="103"/>
+      <c r="M899" s="103"/>
+      <c r="N899" s="103"/>
+      <c r="O899" s="103"/>
+      <c r="P899" s="103"/>
+      <c r="Q899" s="103"/>
+    </row>
+    <row r="900" s="101" customFormat="1" spans="5:17">
+      <c r="E900" s="199"/>
+      <c r="F900" s="199"/>
+      <c r="L900" s="103"/>
+      <c r="M900" s="103"/>
+      <c r="N900" s="103"/>
+      <c r="O900" s="103"/>
+      <c r="P900" s="103"/>
+      <c r="Q900" s="103"/>
+    </row>
+    <row r="901" s="101" customFormat="1" spans="5:17">
+      <c r="E901" s="199"/>
+      <c r="F901" s="199"/>
+      <c r="L901" s="103"/>
+      <c r="M901" s="103"/>
+      <c r="N901" s="103"/>
+      <c r="O901" s="103"/>
+      <c r="P901" s="103"/>
+      <c r="Q901" s="103"/>
+    </row>
+    <row r="902" s="101" customFormat="1" spans="5:17">
+      <c r="E902" s="199"/>
+      <c r="F902" s="199"/>
+      <c r="L902" s="103"/>
+      <c r="M902" s="103"/>
+      <c r="N902" s="103"/>
+      <c r="O902" s="103"/>
+      <c r="P902" s="103"/>
+      <c r="Q902" s="103"/>
+    </row>
+    <row r="903" s="101" customFormat="1" spans="5:17">
+      <c r="E903" s="199"/>
+      <c r="F903" s="199"/>
+      <c r="L903" s="103"/>
+      <c r="M903" s="103"/>
+      <c r="N903" s="103"/>
+      <c r="O903" s="103"/>
+      <c r="P903" s="103"/>
+      <c r="Q903" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:I40"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AR14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AQ18" sqref="AQ18"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2287,6 +4444,7 @@
     <col min="15" max="15" width="11.8571428571429" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
     <col min="17" max="17" width="9.28571428571429" customWidth="1"/>
+    <col min="25" max="26" width="11.7142857142857"/>
     <col min="30" max="30" width="9.28571428571429"/>
     <col min="32" max="32" width="9.28571428571429"/>
     <col min="35" max="35" width="9.28571428571429"/>
@@ -2298,7 +4456,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:44">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2370,10 +4528,10 @@
       <c r="W2" s="28"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="52" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="Z2" s="52" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
@@ -2396,11 +4554,11 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:41">
       <c r="A3" s="8" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="6" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2447,11 +4605,11 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:41">
       <c r="A4" s="8" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2498,11 +4656,11 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:44">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="101" t="s">
-        <v>8</v>
+      <c r="C5" s="200" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2702,53 +4860,53 @@
     </row>
     <row r="8" s="4" customFormat="1" ht="14.5" customHeight="1" spans="1:44">
       <c r="A8" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="31" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N8" s="31" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="39" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
@@ -2756,45 +4914,45 @@
       <c r="U8" s="40"/>
       <c r="V8" s="40"/>
       <c r="W8" s="41" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="X8" s="42" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
       <c r="AA8" s="42"/>
       <c r="AB8" s="57"/>
       <c r="AC8" s="58" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="AD8" s="59" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="AE8" s="60"/>
       <c r="AF8" s="60"/>
       <c r="AG8" s="60"/>
       <c r="AH8" s="74"/>
       <c r="AI8" s="75" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="AJ8" s="76" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AK8" s="77" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="AL8" s="78" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AM8" s="79" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="AN8" s="80" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="AO8" s="80" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AP8" s="92"/>
       <c r="AQ8" s="93" t="str">
@@ -2811,10 +4969,10 @@
       <c r="E9" s="18"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="32"/>
@@ -2825,32 +4983,32 @@
       <c r="O9" s="33"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="33" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="R9" s="43" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="S9" s="44"/>
       <c r="T9" s="45"/>
       <c r="U9" s="43" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="V9" s="45"/>
       <c r="W9" s="46"/>
       <c r="X9" s="47" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="Y9" s="61"/>
       <c r="Z9" s="62"/>
       <c r="AA9" s="63" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="AB9" s="64" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="AC9" s="65"/>
       <c r="AD9" s="66" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="AE9" s="67"/>
       <c r="AF9" s="67"/>
@@ -2864,8 +5022,8 @@
       <c r="AN9" s="80"/>
       <c r="AO9" s="80"/>
       <c r="AP9" s="92"/>
-      <c r="AQ9" s="102" t="s">
-        <v>8</v>
+      <c r="AQ9" s="201" t="s">
+        <v>33</v>
       </c>
       <c r="AR9" s="96"/>
     </row>
@@ -2887,50 +5045,50 @@
       <c r="O10" s="34"/>
       <c r="P10" s="35"/>
       <c r="Q10" s="48" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="R10" s="49" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="T10" s="48" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="U10" s="49" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="V10" s="48" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="W10" s="50"/>
       <c r="X10" s="51" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="Y10" s="68" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Z10" s="68" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="AA10" s="64"/>
       <c r="AB10" s="69"/>
       <c r="AC10" s="70"/>
       <c r="AD10" s="71" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="AE10" s="72" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="AF10" s="72" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="AG10" s="86" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AH10" s="86" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="AI10" s="87"/>
       <c r="AJ10" s="76"/>
@@ -2941,7 +5099,7 @@
       <c r="AO10" s="91"/>
       <c r="AP10" s="92"/>
       <c r="AQ10" s="97" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="AR10" s="98">
         <v>900000</v>
@@ -2949,7 +5107,7 @@
     </row>
     <row r="11" spans="43:44">
       <c r="AQ11" s="99" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="AR11" s="98">
         <v>1719196.80376576</v>
@@ -2957,13 +5115,13 @@
     </row>
     <row r="12" spans="43:44">
       <c r="AQ12" s="99" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AR12" s="98"/>
     </row>
     <row r="13" spans="43:44">
       <c r="AQ13" s="99" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AR13" s="98">
         <v>312581.23704832</v>
@@ -2971,7 +5129,7 @@
     </row>
     <row r="14" spans="43:44">
       <c r="AQ14" s="99" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="AR14" s="100">
         <v>32</v>

--- a/src/main/resources/templates/excel/TemplateTiket.xlsx
+++ b/src/main/resources/templates/excel/TemplateTiket.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE" sheetId="2" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <t>MANAGEMENT FEE</t>
   </si>
   <si>
-    <t>PPN (11%)</t>
+    <t>PPN (12%)</t>
   </si>
   <si>
     <t>PPh 23 (2%)</t>
@@ -2841,6 +2841,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
